--- a/1. INTRODUCTION TO EXCEL/Introduction+to+Excel/Introduction to Excel/Workbooks/1_2_working_with_data.xlsx
+++ b/1. INTRODUCTION TO EXCEL/Introduction+to+Excel/Introduction to Excel/Workbooks/1_2_working_with_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\myTutorials\DataCamp\1. INTRODUCTION TO EXCEL\Introduction+to+Excel\Introduction to Excel\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0283139-0183-49FA-8ECD-5BCCB8687892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE86C9-9BD7-42CC-B2A2-8454993BE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Monthly Stock Price" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="2670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="2671">
   <si>
     <t>Date</t>
   </si>
@@ -8052,6 +8052,9 @@
   </si>
   <si>
     <t>71 min</t>
+  </si>
+  <si>
+    <t>open vs close</t>
   </si>
 </sst>
 </file>
@@ -8101,7 +8104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8110,6 +8113,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8390,10 +8394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8401,7 +8405,7 @@
     <col min="1" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8420,8 +8424,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>41395</v>
       </c>
@@ -8440,8 +8447,16 @@
       <c r="F2" s="2">
         <v>1974715308</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>E2-B2</f>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="I2" s="4">
+        <f>AVERAGE(G2:G121)</f>
+        <v>0.6213333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>41426</v>
       </c>
@@ -8460,8 +8475,12 @@
       <c r="F3" s="2">
         <v>1941280776</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">E3-B3</f>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41456</v>
       </c>
@@ -8480,8 +8499,12 @@
       <c r="F4" s="2">
         <v>2047770180</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>41487</v>
       </c>
@@ -8500,8 +8523,12 @@
       <c r="F5" s="2">
         <v>1338144516</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1.2099999999999973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>41518</v>
       </c>
@@ -8520,8 +8547,12 @@
       <c r="F6" s="2">
         <v>1323615060</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.5400000000000027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>41548</v>
       </c>
@@ -8540,8 +8571,12 @@
       <c r="F7" s="2">
         <v>2206771020</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.759999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>41579</v>
       </c>
@@ -8560,8 +8595,12 @@
       <c r="F8" s="2">
         <v>1049213736</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>41609</v>
       </c>
@@ -8580,8 +8619,12 @@
       <c r="F9" s="2">
         <v>1352374272</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.4400000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>41640</v>
       </c>
@@ -8600,8 +8643,12 @@
       <c r="F10" s="2">
         <v>2178287532</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>41671</v>
       </c>
@@ -8620,8 +8667,12 @@
       <c r="F11" s="2">
         <v>1620230148</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>41699</v>
       </c>
@@ -8640,8 +8691,12 @@
       <c r="F12" s="2">
         <v>1744505748</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-2.3099999999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41730</v>
       </c>
@@ -8660,8 +8715,12 @@
       <c r="F13" s="2">
         <v>1421285316</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-1.2900000000000027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41760</v>
       </c>
@@ -8680,8 +8739,12 @@
       <c r="F14" s="2">
         <v>829136000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.8699999999999974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>41791</v>
       </c>
@@ -8700,8 +8763,12 @@
       <c r="F15" s="2">
         <v>789784000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.74000000000000199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>41821</v>
       </c>
@@ -8720,8 +8787,12 @@
       <c r="F16" s="2">
         <v>771666000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>41852</v>
       </c>
@@ -8740,8 +8811,12 @@
       <c r="F17" s="2">
         <v>581574000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>41883</v>
       </c>
@@ -8760,8 +8835,12 @@
       <c r="F18" s="2">
         <v>708502000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.27000000000000313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41913</v>
       </c>
@@ -8780,8 +8859,12 @@
       <c r="F19" s="2">
         <v>1109632000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-0.94999999999999929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>41944</v>
       </c>
@@ -8800,8 +8883,12 @@
       <c r="F20" s="2">
         <v>595410000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41974</v>
       </c>
@@ -8820,8 +8907,12 @@
       <c r="F21" s="2">
         <v>1088686000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-0.71999999999999886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42005</v>
       </c>
@@ -8840,8 +8931,12 @@
       <c r="F22" s="2">
         <v>1056926000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42036</v>
       </c>
@@ -8860,8 +8955,12 @@
       <c r="F23" s="2">
         <v>808386000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42064</v>
       </c>
@@ -8880,8 +8979,12 @@
       <c r="F24" s="2">
         <v>864144000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-0.61000000000000298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42095</v>
       </c>
@@ -8900,8 +9003,12 @@
       <c r="F25" s="2">
         <v>874900000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42125</v>
       </c>
@@ -8920,8 +9027,12 @@
       <c r="F26" s="2">
         <v>648434000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-0.26000000000000156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42156</v>
       </c>
@@ -8940,8 +9051,12 @@
       <c r="F27" s="2">
         <v>704328000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-0.44000000000000128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42186</v>
       </c>
@@ -8960,8 +9075,12 @@
       <c r="F28" s="2">
         <v>1370858000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42217</v>
       </c>
@@ -8980,8 +9099,12 @@
       <c r="F29" s="2">
         <v>1106942000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>-0.49000000000000199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42248</v>
       </c>
@@ -9000,8 +9123,12 @@
       <c r="F30" s="2">
         <v>871504000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42278</v>
       </c>
@@ -9020,8 +9147,12 @@
       <c r="F31" s="2">
         <v>1005286000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>4.9699999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42309</v>
       </c>
@@ -9040,8 +9171,12 @@
       <c r="F32" s="2">
         <v>751482000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.4100000000000037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42339</v>
       </c>
@@ -9060,8 +9195,12 @@
       <c r="F33" s="2">
         <v>872694000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42370</v>
       </c>
@@ -9080,8 +9219,12 @@
       <c r="F34" s="2">
         <v>1039984000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42401</v>
       </c>
@@ -9100,8 +9243,12 @@
       <c r="F35" s="2">
         <v>1352946000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>-2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42430</v>
       </c>
@@ -9120,8 +9267,12 @@
       <c r="F36" s="2">
         <v>853314000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>2.0899999999999963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42461</v>
       </c>
@@ -9140,8 +9291,12 @@
       <c r="F37" s="2">
         <v>933228000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>-2.4699999999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42491</v>
       </c>
@@ -9160,8 +9315,12 @@
       <c r="F38" s="2">
         <v>682046000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42522</v>
       </c>
@@ -9180,8 +9339,12 @@
       <c r="F39" s="2">
         <v>839330000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>-2.240000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42552</v>
       </c>
@@ -9200,8 +9363,12 @@
       <c r="F40" s="2">
         <v>653244000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>4.3100000000000023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42583</v>
       </c>
@@ -9220,8 +9387,12 @@
       <c r="F41" s="2">
         <v>577080000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42614</v>
       </c>
@@ -9240,8 +9411,12 @@
       <c r="F42" s="2">
         <v>630896000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42644</v>
       </c>
@@ -9260,8 +9435,12 @@
       <c r="F43" s="2">
         <v>707820000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42675</v>
       </c>
@@ -9280,8 +9459,12 @@
       <c r="F44" s="2">
         <v>967068000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42705</v>
       </c>
@@ -9300,8 +9483,12 @@
       <c r="F45" s="2">
         <v>687126000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0.68999999999999773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42736</v>
       </c>
@@ -9320,8 +9507,12 @@
       <c r="F46" s="2">
         <v>736654000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.97999999999999687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42767</v>
       </c>
@@ -9340,8 +9531,12 @@
       <c r="F47" s="2">
         <v>529816000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42795</v>
       </c>
@@ -9360,8 +9555,12 @@
       <c r="F48" s="2">
         <v>691002000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>-0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42826</v>
       </c>
@@ -9380,8 +9579,12 @@
       <c r="F49" s="2">
         <v>574432000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>3.7899999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42856</v>
       </c>
@@ -9400,8 +9603,12 @@
       <c r="F50" s="2">
         <v>707186000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>3.1400000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42887</v>
       </c>
@@ -9420,8 +9627,12 @@
       <c r="F51" s="2">
         <v>881706000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>-3.0700000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42917</v>
       </c>
@@ -9440,8 +9651,12 @@
       <c r="F52" s="2">
         <v>838172000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42948</v>
       </c>
@@ -9460,8 +9675,12 @@
       <c r="F53" s="2">
         <v>656924000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0.36999999999999744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42979</v>
       </c>
@@ -9480,8 +9699,12 @@
       <c r="F54" s="2">
         <v>592524000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43009</v>
       </c>
@@ -9500,8 +9723,12 @@
       <c r="F55" s="2">
         <v>737076000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>2.8699999999999974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43040</v>
       </c>
@@ -9520,8 +9747,12 @@
       <c r="F56" s="2">
         <v>573720000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43070</v>
       </c>
@@ -9540,8 +9771,12 @@
       <c r="F57" s="2">
         <v>598810000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43101</v>
       </c>
@@ -9560,8 +9795,12 @@
       <c r="F58" s="2">
         <v>657748000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>6.4600000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43132</v>
       </c>
@@ -9580,8 +9819,12 @@
       <c r="F59" s="2">
         <v>1026814000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>-3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43160</v>
       </c>
@@ -9600,8 +9843,12 @@
       <c r="F60" s="2">
         <v>1042336000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>-3.6199999999999974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43191</v>
       </c>
@@ -9620,8 +9867,12 @@
       <c r="F61" s="2">
         <v>984928000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>-0.45000000000000284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43221</v>
       </c>
@@ -9640,8 +9891,12 @@
       <c r="F62" s="2">
         <v>740734000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>4.1899999999999977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43252</v>
       </c>
@@ -9660,8 +9915,12 @@
       <c r="F63" s="2">
         <v>803684000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43282</v>
       </c>
@@ -9680,8 +9939,12 @@
       <c r="F64" s="2">
         <v>835654000</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>5.5899999999999963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43313</v>
       </c>
@@ -9700,8 +9963,12 @@
       <c r="F65" s="2">
         <v>685718000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>-0.36999999999999744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43344</v>
       </c>
@@ -9720,8 +9987,12 @@
       <c r="F66" s="2">
         <v>718518000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>-0.78000000000000114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43374</v>
       </c>
@@ -9740,8 +10011,12 @@
       <c r="F67" s="2">
         <v>1130942000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <f t="shared" ref="G67:G121" si="1">E67-B67</f>
+        <v>-6.1199999999999974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43405</v>
       </c>
@@ -9760,8 +10035,12 @@
       <c r="F68" s="2">
         <v>786236000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0.90999999999999659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43435</v>
       </c>
@@ -9780,8 +10059,12 @@
       <c r="F69" s="2">
         <v>857436000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>-4.3599999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43466</v>
       </c>
@@ -9800,8 +10083,12 @@
       <c r="F70" s="2">
         <v>697168000</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43497</v>
       </c>
@@ -9820,8 +10107,12 @@
       <c r="F71" s="2">
         <v>652174000</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43525</v>
       </c>
@@ -9840,8 +10131,12 @@
       <c r="F72" s="2">
         <v>663738000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>2.2900000000000063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43556</v>
       </c>
@@ -9860,8 +10155,12 @@
       <c r="F73" s="2">
         <v>647446000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43586</v>
       </c>
@@ -9880,8 +10179,12 @@
       <c r="F74" s="2">
         <v>742726000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>-4.5500000000000043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43617</v>
       </c>
@@ -9900,8 +10203,12 @@
       <c r="F75" s="2">
         <v>712452000</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0.78999999999999915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43647</v>
       </c>
@@ -9920,8 +10227,12 @@
       <c r="F76" s="2">
         <v>715104000</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>5.8599999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43678</v>
       </c>
@@ -9940,8 +10251,12 @@
       <c r="F77" s="2">
         <v>586310000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>-1.3500000000000014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43709</v>
       </c>
@@ -9960,8 +10275,12 @@
       <c r="F78" s="2">
         <v>517072000</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>1.9699999999999989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43739</v>
       </c>
@@ -9980,8 +10299,12 @@
       <c r="F79" s="2">
         <v>603634000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43770</v>
       </c>
@@ -10000,8 +10323,12 @@
       <c r="F80" s="2">
         <v>528780000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>1.9100000000000037</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43800</v>
       </c>
@@ -10020,8 +10347,12 @@
       <c r="F81" s="2">
         <v>559106000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1.8400000000000034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43831</v>
       </c>
@@ -10040,8 +10371,12 @@
       <c r="F82" s="2">
         <v>673594000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>4.2199999999999989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43862</v>
       </c>
@@ -10060,8 +10395,12 @@
       <c r="F83" s="2">
         <v>830656000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>-6.1200000000000045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43891</v>
       </c>
@@ -10080,8 +10419,12 @@
       <c r="F84" s="2">
         <v>1570716000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>-9.4699999999999918</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43922</v>
       </c>
@@ -10100,8 +10443,12 @@
       <c r="F85" s="2">
         <v>1124224000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>11.129999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43952</v>
       </c>
@@ -10120,8 +10467,12 @@
       <c r="F86" s="2">
         <v>725130000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>5.480000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43983</v>
       </c>
@@ -10140,8 +10491,12 @@
       <c r="F87" s="2">
         <v>814160000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>-0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44013</v>
       </c>
@@ -10160,8 +10515,12 @@
       <c r="F88" s="2">
         <v>822998000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>3.4400000000000119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44044</v>
       </c>
@@ -10180,8 +10539,12 @@
       <c r="F89" s="2">
         <v>614564000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>6.9300000000000068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44075</v>
       </c>
@@ -10200,8 +10563,12 @@
       <c r="F90" s="2">
         <v>836634000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>-8.3299999999999983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44105</v>
       </c>
@@ -10220,8 +10587,12 @@
       <c r="F91" s="2">
         <v>854920000</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>6.6299999999999955</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44136</v>
       </c>
@@ -10240,8 +10611,12 @@
       <c r="F92" s="2">
         <v>631912000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>6.539999999999992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -10260,8 +10635,12 @@
       <c r="F93" s="2">
         <v>608630000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44197</v>
       </c>
@@ -10280,8 +10659,12 @@
       <c r="F94" s="2">
         <v>791662000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>3.3700000000000045</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44228</v>
       </c>
@@ -10300,8 +10683,12 @@
       <c r="F95" s="2">
         <v>678324000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>8.8699999999999903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44256</v>
       </c>
@@ -10320,8 +10707,12 @@
       <c r="F96" s="2">
         <v>756694000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0.72999999999998977</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44287</v>
       </c>
@@ -10340,8 +10731,12 @@
       <c r="F97" s="2">
         <v>702352000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>13.070000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44317</v>
       </c>
@@ -10360,8 +10755,12 @@
       <c r="F98" s="2">
         <v>603480000</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>-0.40999999999999659</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44348</v>
       </c>
@@ -10380,8 +10779,12 @@
       <c r="F99" s="2">
         <v>544936000</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>3.3700000000000045</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44378</v>
       </c>
@@ -10400,8 +10803,12 @@
       <c r="F100" s="2">
         <v>610808000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>13.009999999999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44409</v>
       </c>
@@ -10420,8 +10827,12 @@
       <c r="F101" s="2">
         <v>461586000</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>9.5799999999999841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44440</v>
       </c>
@@ -10440,8 +10851,12 @@
       <c r="F102" s="2">
         <v>590840000</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>-11.319999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44470</v>
       </c>
@@ -10460,8 +10875,12 @@
       <c r="F103" s="2">
         <v>720758000</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>13.600000000000023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44501</v>
       </c>
@@ -10480,8 +10899,12 @@
       <c r="F104" s="2">
         <v>608378000</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>-6.1500000000000057</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44531</v>
       </c>
@@ -10500,8 +10923,12 @@
       <c r="F105" s="2">
         <v>619694000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0.84999999999999432</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44562</v>
       </c>
@@ -10520,8 +10947,12 @@
       <c r="F106" s="2">
         <v>767206000</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>-9.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44593</v>
       </c>
@@ -10540,8 +10971,12 @@
       <c r="F107" s="2">
         <v>928126000</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>-2.5300000000000011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44621</v>
       </c>
@@ -10560,8 +10995,12 @@
       <c r="F108" s="2">
         <v>729162000</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>4.1899999999999977</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44652</v>
       </c>
@@ -10580,8 +11019,12 @@
       <c r="F109" s="2">
         <v>761152000</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>-25.39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44682</v>
       </c>
@@ -10600,8 +11043,12 @@
       <c r="F110" s="2">
         <v>850450000</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44713</v>
       </c>
@@ -10620,8 +11067,12 @@
       <c r="F111" s="2">
         <v>770754000</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>-5.9000000000000057</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44743</v>
       </c>
@@ -10640,8 +11091,12 @@
       <c r="F112" s="2">
         <v>789529700</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>8.3899999999999864</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44774</v>
       </c>
@@ -10660,8 +11115,12 @@
       <c r="F113" s="2">
         <v>515852700</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>-7.0799999999999983</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44805</v>
       </c>
@@ -10680,8 +11139,12 @@
       <c r="F114" s="2">
         <v>613278900</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>-12.629999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44835</v>
       </c>
@@ -10700,8 +11163,12 @@
       <c r="F115" s="2">
         <v>681488300</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44866</v>
       </c>
@@ -10720,8 +11187,12 @@
       <c r="F116" s="2">
         <v>716522700</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>5.539999999999992</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44896</v>
       </c>
@@ -10740,8 +11211,12 @@
       <c r="F117" s="2">
         <v>603127800</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>-12.789999999999992</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44927</v>
       </c>
@@ -10760,8 +11235,12 @@
       <c r="F118" s="2">
         <v>672897800</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44958</v>
       </c>
@@ -10780,8 +11259,12 @@
       <c r="F119" s="2">
         <v>952580200</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>-8.6499999999999915</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44986</v>
       </c>
@@ -10800,8 +11283,12 @@
       <c r="F120" s="2">
         <v>859911400</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45017</v>
       </c>
@@ -10819,6 +11306,10 @@
       </c>
       <c r="F121" s="2">
         <v>255598400</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>6.480000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -10832,7 +11323,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10891,7 +11382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFB53D3-5B44-4C5A-B4C4-9E9CEDAB6EB9}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
